--- a/Assets/Excel/Language.xlsx
+++ b/Assets/Excel/Language.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19440" windowHeight="12040"/>
+    <workbookView windowWidth="13650" windowHeight="7640"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -48,6 +48,18 @@
   </si>
   <si>
     <t>设施</t>
+  </si>
+  <si>
+    <t>tx_ui_food</t>
+  </si>
+  <si>
+    <t>当前食物</t>
+  </si>
+  <si>
+    <t>tx_ui_order</t>
+  </si>
+  <si>
+    <t>订单</t>
   </si>
   <si>
     <t>tx_state_build</t>
@@ -1006,13 +1018,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:C8"/>
+  <dimension ref="A2:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="22.0909090909091" customWidth="1"/>
     <col min="3" max="3" width="48.3636363636364" customWidth="1"/>
@@ -1051,29 +1063,29 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="29" customHeight="1" spans="1:3">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" ht="50" customHeight="1" spans="1:3">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" ht="29" customHeight="1" spans="1:3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1084,15 +1096,37 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" ht="50" customHeight="1" spans="1:3">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Language.xlsx
+++ b/Assets/Excel/Language.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -60,6 +60,24 @@
   </si>
   <si>
     <t>订单</t>
+  </si>
+  <si>
+    <t>tx_ui_orderFinish</t>
+  </si>
+  <si>
+    <t>订单完成</t>
+  </si>
+  <si>
+    <t>tx_ui_levelClear</t>
+  </si>
+  <si>
+    <t>感谢游玩</t>
+  </si>
+  <si>
+    <t>tx_ui_nextLevel</t>
+  </si>
+  <si>
+    <t>下一关</t>
   </si>
   <si>
     <t>tx_state_build</t>
@@ -1018,10 +1036,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:C10"/>
+  <dimension ref="A2:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -1085,25 +1103,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="29" customHeight="1" spans="1:3">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" ht="50" customHeight="1" spans="1:3">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1114,19 +1132,52 @@
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" ht="29" customHeight="1" spans="1:3">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="11" ht="50" customHeight="1" spans="1:3">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
